--- a/Income/VRSN_inc.xlsx
+++ b/Income/VRSN_inc.xlsx
@@ -4217,16 +4217,16 @@
         <v>0.6882</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.6889</v>
+        <v>0.6853</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.6894</v>
+        <v>0.6858</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.6881</v>
+        <v>0.6844</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.6838</v>
+        <v>0.6801</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.6772</v>
